--- a/dumps/Stocks/ONGC.xlsx
+++ b/dumps/Stocks/ONGC.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -204,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -433,6 +434,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +742,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP983"/>
+  <dimension ref="A1:AP984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1089,43 +1091,44 @@
       <c r="AP4" s="53" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="85" t="n">
-        <v>46034</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="86" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>233.05</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2347.08</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="n">
+        <v>266</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2673.3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>14.24</v>
+      <c r="I5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1141,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>241.46</v>
+        <v>233.05</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2431.73</v>
+        <v>2347.08</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1152,19 +1155,19 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>14.73</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46020</v>
+        <v>46027</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1176,10 +1179,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>237.75</v>
+        <v>241.46</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2394.41</v>
+        <v>2431.73</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1187,19 +1190,19 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>14.52</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1208,13 +1211,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>233.67</v>
+        <v>237.75</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4706.57</v>
+        <v>2394.41</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1222,15 +1225,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4.69</v>
+        <v>2.39</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>28.48</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1243,13 +1246,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>235.58</v>
+        <v>233.67</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2372.52</v>
+        <v>4706.57</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1257,15 +1260,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.35</v>
+        <v>4.69</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>14.37</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1281,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>236.61</v>
+        <v>235.58</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2382.82</v>
+        <v>2372.52</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1292,19 +1295,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>14.36</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>45996</v>
+        <v>46014</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1316,10 +1319,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>242.45</v>
+        <v>236.61</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2441.67</v>
+        <v>2382.82</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1327,19 +1330,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>14.76</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>45978</v>
+        <v>45996</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1351,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>248.35</v>
+        <v>242.45</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2501.09</v>
+        <v>2441.67</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1362,19 +1365,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15.1</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1383,33 +1386,33 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>6</v>
+        <v>248.35</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>840</v>
+        <v>2501.09</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 14-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>45957</v>
+        <v>45975</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1418,29 +1421,29 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>253.55</v>
+        <v>6</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5107.02</v>
+        <v>840</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 14-NOV-2025  Interim-Dividend of Rs.6.0000/- per share on Ex-Date: 14-NOV-2025</t>
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>30.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1453,13 +1456,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>249.8</v>
+        <v>253.55</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>251.57</v>
+        <v>5107.02</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1467,10 +1470,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.25</v>
+        <v>5.08</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1.52</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="16">
@@ -1488,13 +1491,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>249.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1257.85</v>
+        <v>251.57</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1502,10 +1505,10 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>7.6</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17">
@@ -1523,13 +1526,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>249.8</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>251.57</v>
+        <v>1257.85</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1537,10 +1540,10 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1.52</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="18">
@@ -1698,13 +1701,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>249.8</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1509.44</v>
+        <v>251.57</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1712,10 +1715,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>9.140000000000001</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="23">
@@ -1733,13 +1736,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>249.8</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>754.71</v>
+        <v>1509.44</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1747,19 +1750,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>4.56</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="85" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1768,13 +1771,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>246.1</v>
+        <v>249.8</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>12392.29</v>
+        <v>754.71</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1782,19 +1785,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>12.3</v>
+        <v>0.75</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>74.98999999999999</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="85" t="n">
-        <v>45904</v>
+        <v>45950</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1806,128 +1809,65 @@
         <v>50</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>246.1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>12392.29</v>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>74.98999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="85" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>1.25</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>62.5</v>
       </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>Final-Dividend of Rs.1.2500/- per share on Ex-Date: 04-SEP-2025  Final-Dividend of Rs.1.2500/- per share on Ex-Date: 04-SEP-2025</t>
         </is>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="38" t="n">
+    <row r="27">
+      <c r="A27" s="38" t="n">
         <v>45950</v>
       </c>
-      <c r="B26" s="39" t="inlineStr">
+      <c r="B27" s="39" t="inlineStr">
         <is>
           <t>BSE</t>
-        </is>
-      </c>
-      <c r="C26" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D26" s="40" t="n">
-        <v>50</v>
-      </c>
-      <c r="E26" s="41" t="n">
-        <v>247.85</v>
-      </c>
-      <c r="F26" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H26" s="40" t="n"/>
-      <c r="I26" s="40" t="n"/>
-      <c r="J26" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="47" t="n"/>
-      <c r="X26" s="47" t="n"/>
-      <c r="Y26" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="47" t="n"/>
-      <c r="AA26" s="47" t="n"/>
-      <c r="AB26" s="48" t="n"/>
-      <c r="AC26" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD26" s="49" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="38" t="n">
-        <v>45904</v>
-      </c>
-      <c r="B27" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -1936,88 +1876,85 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F27" s="41" t="n">
-        <v>25</v>
+        <v>247.85</v>
+      </c>
+      <c r="F27" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.2500/- per share on Ex-Date: 04-SEP-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H27" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H27" s="40" t="n"/>
+      <c r="I27" s="40" t="n"/>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
@@ -2037,13 +1974,13 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>1.25</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
@@ -2061,75 +1998,75 @@
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45855</v>
+        <v>45904</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -2141,96 +2078,96 @@
         <v>30</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>245.13</v>
+        <v>1.25</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>7353.9</v>
+        <v>37.5</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.1.2500/- per share on Ex-Date: 04-SEP-2025</t>
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2239,13 +2176,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>254.12</v>
+        <v>245.13</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>2541.25</v>
+        <v>7353.9</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
@@ -2253,81 +2190,81 @@
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>2.52</v>
+        <v>7.3</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>15.33</v>
+        <v>44.6</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2340,13 +2277,13 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>239.84</v>
+        <v>254.12</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>959.38</v>
+        <v>2541.25</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
@@ -2354,74 +2291,74 @@
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>0.95</v>
+        <v>2.52</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>5.79</v>
+        <v>15.33</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
@@ -2441,13 +2378,13 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32" s="41" t="n">
         <v>239.84</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>1439.07</v>
+        <v>959.38</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2455,93 +2392,178 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>1.43</v>
+        <v>0.95</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>8.68</v>
+        <v>5.79</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="49" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="41" t="n">
+        <v>239.84</v>
+      </c>
+      <c r="F33" s="41" t="n">
+        <v>1439.07</v>
+      </c>
+      <c r="G33" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I33" s="40" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J33" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="46">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="47" t="n"/>
+      <c r="X33" s="47" t="n"/>
+      <c r="Y33" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="47" t="n"/>
+      <c r="AA33" s="47" t="n"/>
+      <c r="AB33" s="48" t="n"/>
+      <c r="AC33" s="44">
         <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
-      <c r="AD32" s="49" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="50" t="n"/>
-      <c r="F33" s="50" t="n"/>
-      <c r="G33" s="51" t="n"/>
-      <c r="J33" s="50" t="n"/>
-      <c r="K33" s="50" t="n"/>
-      <c r="L33" s="50" t="n"/>
-      <c r="M33" s="53" t="n"/>
-      <c r="W33" s="50" t="n"/>
-      <c r="X33" s="50" t="n"/>
-      <c r="Y33" s="50" t="n"/>
-      <c r="Z33" s="50" t="n"/>
-      <c r="AA33" s="50" t="n"/>
-      <c r="AB33" s="50" t="n"/>
-      <c r="AC33" s="50" t="n"/>
+      <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="50" t="n"/>
@@ -17478,6 +17500,7 @@
       <c r="J967" s="50" t="n"/>
       <c r="K967" s="50" t="n"/>
       <c r="L967" s="50" t="n"/>
+      <c r="M967" s="53" t="n"/>
       <c r="W967" s="50" t="n"/>
       <c r="X967" s="50" t="n"/>
       <c r="Y967" s="50" t="n"/>
@@ -17725,6 +17748,21 @@
       <c r="AA983" s="50" t="n"/>
       <c r="AB983" s="50" t="n"/>
       <c r="AC983" s="50" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="50" t="n"/>
+      <c r="F984" s="50" t="n"/>
+      <c r="G984" s="51" t="n"/>
+      <c r="J984" s="50" t="n"/>
+      <c r="K984" s="50" t="n"/>
+      <c r="L984" s="50" t="n"/>
+      <c r="W984" s="50" t="n"/>
+      <c r="X984" s="50" t="n"/>
+      <c r="Y984" s="50" t="n"/>
+      <c r="Z984" s="50" t="n"/>
+      <c r="AA984" s="50" t="n"/>
+      <c r="AB984" s="50" t="n"/>
+      <c r="AC984" s="50" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$39"/>
